--- a/BurnDown.xlsx
+++ b/BurnDown.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC2FA79-14A7-4C4F-9B0D-68E84A0B83C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -129,7 +130,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -251,7 +252,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -595,7 +595,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1235,7 +1234,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Graphique 3"/>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1515,33 +1520,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:AD16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" customWidth="1"/>
-    <col min="21" max="21" width="17.85546875" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" customWidth="1"/>
+    <col min="21" max="21" width="17.88671875" customWidth="1"/>
     <col min="22" max="22" width="14" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" customWidth="1"/>
+    <col min="23" max="23" width="14.5546875" customWidth="1"/>
     <col min="24" max="24" width="14" customWidth="1"/>
-    <col min="25" max="25" width="14.140625" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" customWidth="1"/>
-    <col min="27" max="27" width="12.140625" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" customWidth="1"/>
+    <col min="25" max="25" width="14.109375" customWidth="1"/>
+    <col min="26" max="26" width="14.33203125" customWidth="1"/>
+    <col min="27" max="27" width="12.109375" customWidth="1"/>
+    <col min="28" max="28" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:30" x14ac:dyDescent="0.3">
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
         <v>1</v>
@@ -1578,7 +1583,7 @@
         <v>44178</v>
       </c>
     </row>
-    <row r="4" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1644,7 +1649,7 @@
       </c>
       <c r="AD4" s="6"/>
     </row>
-    <row r="5" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:30" x14ac:dyDescent="0.3">
       <c r="U5" s="5" t="s">
         <v>27</v>
       </c>
@@ -1671,7 +1676,7 @@
       </c>
       <c r="AD5" s="6"/>
     </row>
-    <row r="6" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:30" x14ac:dyDescent="0.3">
       <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
@@ -1698,7 +1703,7 @@
       <c r="AB6" s="5"/>
       <c r="AD6" s="6"/>
     </row>
-    <row r="7" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -1714,7 +1719,7 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
@@ -1746,7 +1751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:30" x14ac:dyDescent="0.3">
       <c r="E10" s="4" t="s">
         <v>29</v>
       </c>
@@ -1754,10 +1759,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:30" x14ac:dyDescent="0.3">
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:30" x14ac:dyDescent="0.3">
       <c r="D12" s="1" t="s">
         <v>33</v>
       </c>
@@ -1774,17 +1779,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:30" x14ac:dyDescent="0.3">
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:30" x14ac:dyDescent="0.3">
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:30" x14ac:dyDescent="0.3">
       <c r="D16" s="5" t="s">
         <v>34</v>
       </c>

--- a/BurnDown.xlsx
+++ b/BurnDown.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC2FA79-14A7-4C4F-9B0D-68E84A0B83C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF3D32B-9E39-4FA0-846F-880082EED491}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,6 +455,15 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1523,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:AD16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1696,9 +1705,15 @@
       <c r="W6" s="5">
         <v>61</v>
       </c>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
+      <c r="X6" s="5">
+        <v>51</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>42</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>27</v>
+      </c>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
       <c r="AD6" s="6"/>

--- a/BurnDown.xlsx
+++ b/BurnDown.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF3D32B-9E39-4FA0-846F-880082EED491}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14218D87-8725-4387-B56F-CE0E1097EB65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6720" yWindow="2004" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -359,22 +359,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>61</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -451,19 +451,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>61</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1532,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:AD16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1663,22 +1663,22 @@
         <v>27</v>
       </c>
       <c r="V5" s="5">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="W5" s="5">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="X5" s="5">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Y5" s="5">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Z5" s="5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AA5" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB5" s="5">
         <v>0</v>
@@ -1700,19 +1700,19 @@
         <v>23</v>
       </c>
       <c r="V6" s="5">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="W6" s="5">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="X6" s="5">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="Y6" s="5">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Z6" s="5">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>

--- a/BurnDown.xlsx
+++ b/BurnDown.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14218D87-8725-4387-B56F-CE0E1097EB65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB9C0A6-D1EC-43BC-B044-C3F85BAC5432}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="2004" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -359,19 +359,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>54</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9</c:v>
@@ -451,19 +451,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>54</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1533,7 +1536,7 @@
   <dimension ref="C2:AD16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AA5" sqref="AA5"/>
+      <selection activeCell="AD15" sqref="AD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1663,19 +1666,19 @@
         <v>27</v>
       </c>
       <c r="V5" s="5">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="W5" s="5">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X5" s="5">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Y5" s="5">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Z5" s="5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA5" s="5">
         <v>9</v>
@@ -1700,21 +1703,23 @@
         <v>23</v>
       </c>
       <c r="V6" s="5">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="W6" s="5">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="X6" s="5">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Y6" s="5">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Z6" s="5">
-        <v>21</v>
-      </c>
-      <c r="AA6" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>16</v>
+      </c>
       <c r="AB6" s="5"/>
       <c r="AD6" s="6"/>
     </row>
